--- a/biology/Mycologie/Isidie/Isidie.xlsx
+++ b/biology/Mycologie/Isidie/Isidie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une isidie (du grec isis, « corail ») est une petite excroissance de quelques dixièmes de millimètre[1],
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une isidie (du grec isis, « corail ») est une petite excroissance de quelques dixièmes de millimètre,
 élaborée par un thalle lichénique.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les isidies contiennent des cellules du photosymbiote et du mycosymbiote, et sont entourées d’une couche serrées d’hyphes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les isidies contiennent des cellules du photosymbiote et du mycosymbiote, et sont entourées d’une couche serrées d’hyphes.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les isidies jouent deux rôles essentiels : elles augmentent la surface photosynthétisante du thalle en
-développant les échanges gazeux et aqueux[2] ; elles permettent la reproduction végétative du thalle, se détachant à l’état sec (transportées par le vent) ou dispersées par les fèces d'animaux lichénivores (insectes, acariens)[3].
+développant les échanges gazeux et aqueux ; elles permettent la reproduction végétative du thalle, se détachant à l’état sec (transportées par le vent) ou dispersées par les fèces d'animaux lichénivores (insectes, acariens).
 </t>
         </is>
       </c>
